--- a/VaultViewer/VaultViewer/DataAccessLayer/Data/EngineerData.xlsx
+++ b/VaultViewer/VaultViewer/DataAccessLayer/Data/EngineerData.xlsx
@@ -50,18 +50,6 @@
   </x:si>
   <x:si>
     <x:t>29.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monitor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24-inch HD monitor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>179.99</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -412,7 +400,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D4"/>
+  <x:dimension ref="A1:D3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -458,20 +446,6 @@
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
